--- a/comparison_results/PSO_PID_No_Disturbance_Test_5.xlsx
+++ b/comparison_results/PSO_PID_No_Disturbance_Test_5.xlsx
@@ -545,64 +545,64 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.02379581619097913</v>
+        <v>0.02294718678965145</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8408408408408409</v>
+        <v>0.8108108108108109</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01235509282579983</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5705705705705706</v>
+        <v>0.5405405405405406</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00036300089233263</v>
+        <v>0.001899044929090381</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01232433615705801</v>
+        <v>0.01169603264058507</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2145828605686652</v>
+        <v>0.2094749084942603</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0829846174145539</v>
+        <v>0.08214653892447746</v>
       </c>
       <c r="J2" t="n">
         <v>15</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9907673564532276</v>
+        <v>0.9884415416316962</v>
       </c>
       <c r="L2" t="n">
         <v>5</v>
       </c>
       <c r="M2" t="n">
-        <v>9.997285559074923</v>
+        <v>1.783774987603581</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1</v>
+        <v>0.001</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1</v>
+        <v>0.1185779672264582</v>
       </c>
       <c r="P2" t="n">
-        <v>2.521024315064603</v>
+        <v>2.049695139825422</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.08912502359222213</v>
+        <v>0.0565003757466201</v>
       </c>
       <c r="R2" t="n">
-        <v>0.9816332655563873</v>
+        <v>0.5133501198964786</v>
       </c>
       <c r="S2" t="n">
-        <v>9.861907605422296</v>
+        <v>1.425975926380901</v>
       </c>
       <c r="T2" t="n">
-        <v>0.01817934591199003</v>
+        <v>0.08531352997543354</v>
       </c>
       <c r="U2" t="n">
-        <v>2</v>
+        <v>1.450009659587001</v>
       </c>
     </row>
     <row r="3">
@@ -610,64 +610,64 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.02548405872065824</v>
+        <v>0.02608582795188714</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9009009009009009</v>
+        <v>0.9109109109109109</v>
       </c>
       <c r="D3" t="n">
-        <v>0.05903214852087668</v>
+        <v>2.358710116112661e-05</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5905905905905906</v>
+        <v>0.6106106106106106</v>
       </c>
       <c r="F3" t="n">
-        <v>0.001106613416976811</v>
+        <v>0.005368561412344897</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01342658575287795</v>
+        <v>0.01544234955613738</v>
       </c>
       <c r="H3" t="n">
-        <v>0.219745831845531</v>
+        <v>0.2588627570864625</v>
       </c>
       <c r="I3" t="n">
-        <v>0.08510132850276633</v>
+        <v>0.08589389063024502</v>
       </c>
       <c r="J3" t="n">
-        <v>12.82077583067393</v>
+        <v>13.45924031925006</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9894603332702288</v>
+        <v>0.9836565066301987</v>
       </c>
       <c r="L3" t="n">
-        <v>4.394946265213971</v>
+        <v>5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.449491066221201</v>
+        <v>1.954392289317449</v>
       </c>
       <c r="N3" t="n">
-        <v>0.01431099286999348</v>
+        <v>0.05785189618927342</v>
       </c>
       <c r="O3" t="n">
-        <v>0.4750466750434278</v>
+        <v>1.206712035493223</v>
       </c>
       <c r="P3" t="n">
-        <v>3.72984073642374</v>
+        <v>10</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.09555006566644758</v>
+        <v>0.04006331672976264</v>
       </c>
       <c r="R3" t="n">
-        <v>0.6349451460264848</v>
+        <v>0.1002914623487545</v>
       </c>
       <c r="S3" t="n">
-        <v>7.403352864640374</v>
+        <v>7.585832873038207</v>
       </c>
       <c r="T3" t="n">
-        <v>0.06878587201479811</v>
+        <v>0.03126976854055167</v>
       </c>
       <c r="U3" t="n">
-        <v>1.266240018704886</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -675,64 +675,64 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.02312639418238209</v>
+        <v>0.02566780479994231</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8208208208208209</v>
+        <v>0.9009009009009009</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5505505505505506</v>
+        <v>0.5905905905905906</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0005675957105056276</v>
+        <v>0.003984495475280035</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01173204619980934</v>
+        <v>0.01463253233234234</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2037770744690017</v>
+        <v>0.2457695692606461</v>
       </c>
       <c r="I4" t="n">
-        <v>0.08234517219721714</v>
+        <v>0.08535350760622493</v>
       </c>
       <c r="J4" t="n">
-        <v>15</v>
+        <v>13.45244452376542</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9904777117621065</v>
+        <v>0.9850286709995981</v>
       </c>
       <c r="L4" t="n">
-        <v>4.999650345852618</v>
+        <v>4.991295014994456</v>
       </c>
       <c r="M4" t="n">
-        <v>8.728257501724912</v>
+        <v>3.421041807057492</v>
       </c>
       <c r="N4" t="n">
-        <v>0.01922124176685448</v>
+        <v>0.1</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1053402011497696</v>
+        <v>1.998206149505972</v>
       </c>
       <c r="P4" t="n">
-        <v>2.086436521383483</v>
+        <v>0.944358703462941</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.05159628968714477</v>
+        <v>0.02621767253497393</v>
       </c>
       <c r="R4" t="n">
-        <v>0.3462870089591185</v>
+        <v>0.3646267165616425</v>
       </c>
       <c r="S4" t="n">
-        <v>3.915725479709242</v>
+        <v>10</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1</v>
+        <v>0.02110523062820884</v>
       </c>
       <c r="U4" t="n">
-        <v>0.66799866947007</v>
+        <v>0.5232672334635907</v>
       </c>
     </row>
     <row r="5">
@@ -740,64 +740,64 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.02330684625440863</v>
+        <v>0.02386318441752065</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8308308308308309</v>
+        <v>0.8408408408408409</v>
       </c>
       <c r="D5" t="n">
-        <v>0.002543538247889998</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5405405405405406</v>
+        <v>0.5505505505505506</v>
       </c>
       <c r="F5" t="n">
-        <v>6.296100336607435e-06</v>
+        <v>0.00355741194889396</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01152994398622777</v>
+        <v>0.01235199301676346</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1977653534469598</v>
+        <v>0.222432274513265</v>
       </c>
       <c r="I5" t="n">
-        <v>0.08209685010353154</v>
+        <v>0.08250777764073852</v>
       </c>
       <c r="J5" t="n">
-        <v>14.99906015058927</v>
+        <v>15</v>
       </c>
       <c r="K5" t="n">
-        <v>0.991037552892132</v>
+        <v>0.9855090339735227</v>
       </c>
       <c r="L5" t="n">
-        <v>4.965333131581483</v>
+        <v>5</v>
       </c>
       <c r="M5" t="n">
-        <v>2.364493022113548</v>
+        <v>3.546390900126684</v>
       </c>
       <c r="N5" t="n">
-        <v>0.07301598502535395</v>
+        <v>0.07035745093289954</v>
       </c>
       <c r="O5" t="n">
-        <v>0.6041907093773002</v>
+        <v>0.8518322602861318</v>
       </c>
       <c r="P5" t="n">
-        <v>2.583703949432398</v>
+        <v>2.287938725661836</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.0235287311336854</v>
+        <v>0.09666151661063303</v>
       </c>
       <c r="R5" t="n">
-        <v>0.3994635213535667</v>
+        <v>1.621665077724605</v>
       </c>
       <c r="S5" t="n">
-        <v>9.887208231286337</v>
+        <v>9.925681229338512</v>
       </c>
       <c r="T5" t="n">
-        <v>0.03086325949454185</v>
+        <v>0.03453547724888784</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1646555242709</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="6">
@@ -805,64 +805,64 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.03239575502831953</v>
+        <v>0.03081449704615221</v>
       </c>
       <c r="C6" t="n">
-        <v>1.101101101101101</v>
+        <v>1.071071071071071</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3613077891114314</v>
+        <v>0.05946969486794185</v>
       </c>
       <c r="E6" t="n">
         <v>0.7207207207207207</v>
       </c>
       <c r="F6" t="n">
-        <v>0.008021024253023964</v>
+        <v>0.007704953436404337</v>
       </c>
       <c r="G6" t="n">
-        <v>0.021153576614097</v>
+        <v>0.02068310908528359</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3087352115954345</v>
+        <v>0.3028504389423324</v>
       </c>
       <c r="I6" t="n">
-        <v>0.09134072942914206</v>
+        <v>0.09103538143228783</v>
       </c>
       <c r="J6" t="n">
-        <v>11.23572136099108</v>
+        <v>11.6050786721789</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9819938513800771</v>
+        <v>0.9820412930434004</v>
       </c>
       <c r="L6" t="n">
         <v>5</v>
       </c>
       <c r="M6" t="n">
-        <v>10</v>
+        <v>7.371400661731313</v>
       </c>
       <c r="N6" t="n">
-        <v>0.09949474318401552</v>
+        <v>0.08040040239343223</v>
       </c>
       <c r="O6" t="n">
-        <v>1.461807184705602</v>
+        <v>0.1786922735968493</v>
       </c>
       <c r="P6" t="n">
-        <v>8.41641983824327</v>
+        <v>9.837750040724071</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.001019308277652516</v>
+        <v>0.001</v>
       </c>
       <c r="R6" t="n">
-        <v>1.991312775707284</v>
+        <v>1.408230696714827</v>
       </c>
       <c r="S6" t="n">
-        <v>10</v>
+        <v>9.923354573453398</v>
       </c>
       <c r="T6" t="n">
-        <v>0.001</v>
+        <v>0.02162899107859598</v>
       </c>
       <c r="U6" t="n">
-        <v>0.848429011110165</v>
+        <v>0.5181901968096877</v>
       </c>
     </row>
     <row r="7">
@@ -870,64 +870,64 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.02851044330802724</v>
+        <v>0.02911372907851252</v>
       </c>
       <c r="C7" t="n">
-        <v>1.011011011011011</v>
+        <v>1.031031031031031</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>0.03895069273849305</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6906906906906907</v>
+        <v>0.7107107107107107</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0008967963625909458</v>
+        <v>0.0001204058455206786</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01706594863393385</v>
+        <v>0.01763642898270118</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2519870631665834</v>
+        <v>0.2521915540781602</v>
       </c>
       <c r="I7" t="n">
-        <v>0.08944974973040758</v>
+        <v>0.0901409227959255</v>
       </c>
       <c r="J7" t="n">
-        <v>12.13034307783672</v>
+        <v>11.94137314265084</v>
       </c>
       <c r="K7" t="n">
-        <v>0.9901820062890739</v>
+        <v>0.9914281241135072</v>
       </c>
       <c r="L7" t="n">
         <v>5</v>
       </c>
       <c r="M7" t="n">
-        <v>6.693089867325282</v>
+        <v>6.846769339332226</v>
       </c>
       <c r="N7" t="n">
-        <v>0.06996549942248073</v>
+        <v>0.02981782483970666</v>
       </c>
       <c r="O7" t="n">
+        <v>0.1197382738777338</v>
+      </c>
+      <c r="P7" t="n">
+        <v>7.652018231802946</v>
+      </c>
+      <c r="Q7" t="n">
         <v>0.1</v>
       </c>
-      <c r="P7" t="n">
+      <c r="R7" t="n">
+        <v>0.1208686170475571</v>
+      </c>
+      <c r="S7" t="n">
         <v>10</v>
       </c>
-      <c r="Q7" t="n">
-        <v>0.04573145111203761</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0.1054547149859114</v>
-      </c>
-      <c r="S7" t="n">
-        <v>2.989320410200509</v>
-      </c>
       <c r="T7" t="n">
-        <v>0.1</v>
+        <v>0.09093153033614183</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1</v>
+        <v>1.994810134508988</v>
       </c>
     </row>
     <row r="8">
@@ -935,64 +935,64 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.02858807641394741</v>
+        <v>0.02568856950156001</v>
       </c>
       <c r="C8" t="n">
         <v>0.8908908908908909</v>
       </c>
       <c r="D8" t="n">
-        <v>1.243534360230614</v>
+        <v>0.1033888098949332</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6006006006006006</v>
+        <v>0.5805805805805806</v>
       </c>
       <c r="F8" t="n">
-        <v>0.004301402019772579</v>
+        <v>0.00484008176098506</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01489269036419993</v>
+        <v>0.01449633905320656</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2506003831422081</v>
+        <v>0.2468274807427501</v>
       </c>
       <c r="I8" t="n">
-        <v>0.08573119256063622</v>
+        <v>0.08500672888101297</v>
       </c>
       <c r="J8" t="n">
-        <v>13.25961797278709</v>
+        <v>13.63950186149855</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9851184742678299</v>
+        <v>0.9843320717635311</v>
       </c>
       <c r="L8" t="n">
-        <v>4.999809210558972</v>
+        <v>4.991817301342671</v>
       </c>
       <c r="M8" t="n">
-        <v>9.9957991477409</v>
+        <v>1.913515820080674</v>
       </c>
       <c r="N8" t="n">
-        <v>0.001</v>
+        <v>0.1</v>
       </c>
       <c r="O8" t="n">
-        <v>1.886158973029904</v>
+        <v>2</v>
       </c>
       <c r="P8" t="n">
-        <v>1.050255195452238</v>
+        <v>1.29428012408704</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.07934378981208308</v>
+        <v>0.04182158549759873</v>
       </c>
       <c r="R8" t="n">
-        <v>1.566827277070542</v>
+        <v>1.016404989931323</v>
       </c>
       <c r="S8" t="n">
-        <v>0.100329738011601</v>
+        <v>0.1</v>
       </c>
       <c r="T8" t="n">
-        <v>0.1</v>
+        <v>0.00191308820511507</v>
       </c>
       <c r="U8" t="n">
-        <v>1.976929843854405</v>
+        <v>1.999991711974012</v>
       </c>
     </row>
     <row r="9">
@@ -1000,64 +1000,64 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.02526686841784552</v>
+        <v>0.06122251545056762</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8908908908908909</v>
+        <v>1.851851851851852</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>4.860016519934574</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6106106106106106</v>
+        <v>0.5205205205205206</v>
       </c>
       <c r="F9" t="n">
-        <v>0.001323524232382304</v>
+        <v>0.0004191128476827494</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01432759366886655</v>
+        <v>0.01199294569529969</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2338366541783132</v>
+        <v>0.2172970500766717</v>
       </c>
       <c r="I9" t="n">
-        <v>0.08596155180346778</v>
+        <v>0.08226387816211186</v>
       </c>
       <c r="J9" t="n">
-        <v>13.44467864844401</v>
+        <v>15</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9889023097726947</v>
+        <v>0.9917206605892066</v>
       </c>
       <c r="L9" t="n">
         <v>5</v>
       </c>
       <c r="M9" t="n">
-        <v>9.995983911578607</v>
+        <v>10</v>
       </c>
       <c r="N9" t="n">
-        <v>0.09331111524064363</v>
+        <v>0.09987942296008047</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1017254056629243</v>
+        <v>0.8209684561551384</v>
       </c>
       <c r="P9" t="n">
-        <v>1.824353784751356</v>
+        <v>0.1</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.07372258825027181</v>
+        <v>0.001</v>
       </c>
       <c r="R9" t="n">
-        <v>2</v>
+        <v>0.880283629744448</v>
       </c>
       <c r="S9" t="n">
-        <v>5.826002898427983</v>
+        <v>8.416424449780326</v>
       </c>
       <c r="T9" t="n">
-        <v>0.09169235375567478</v>
+        <v>0.02475720129659135</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1181764929306724</v>
+        <v>1.218553203742484</v>
       </c>
     </row>
     <row r="10">
@@ -1065,64 +1065,64 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.02359639145662938</v>
+        <v>0.02643580069836211</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8308308308308309</v>
+        <v>0.9109109109109109</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>0.1143587714961036</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5505505505505506</v>
+        <v>0.5905905905905906</v>
       </c>
       <c r="F10" t="n">
-        <v>0.003214950173316911</v>
+        <v>0.007151971922204812</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01224022226165428</v>
+        <v>0.01571359388468385</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2211535659640274</v>
+        <v>0.263885042194053</v>
       </c>
       <c r="I10" t="n">
-        <v>0.08242208852060615</v>
+        <v>0.0850824520939053</v>
       </c>
       <c r="J10" t="n">
-        <v>15</v>
+        <v>13.77880853496693</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9860213649476152</v>
+        <v>0.9810042108064928</v>
       </c>
       <c r="L10" t="n">
-        <v>4.999999147033943</v>
+        <v>4.999979285831471</v>
       </c>
       <c r="M10" t="n">
-        <v>3.037657561241335</v>
+        <v>1.411450020082145</v>
       </c>
       <c r="N10" t="n">
-        <v>0.05150314634702073</v>
+        <v>0.04495104176165279</v>
       </c>
       <c r="O10" t="n">
-        <v>0.7184252996501292</v>
+        <v>0.8153766672062632</v>
       </c>
       <c r="P10" t="n">
-        <v>1.831426582025862</v>
+        <v>5.318370887323325</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.1</v>
+        <v>0.07140563925867351</v>
       </c>
       <c r="R10" t="n">
-        <v>1.631968509382683</v>
+        <v>1.745112031703856</v>
       </c>
       <c r="S10" t="n">
-        <v>9.959856151399485</v>
+        <v>6.990953920069569</v>
       </c>
       <c r="T10" t="n">
-        <v>0.04921446777031641</v>
+        <v>0.001</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1</v>
+        <v>1.883037899326824</v>
       </c>
     </row>
     <row r="11">
@@ -1130,64 +1130,64 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.02647739313958889</v>
+        <v>0.0273752824732027</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9309309309309309</v>
+        <v>0.960960960960961</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6206206206206206</v>
+        <v>0.6406406406406406</v>
       </c>
       <c r="F11" t="n">
-        <v>0.003097166878080182</v>
+        <v>0.00425173802129072</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0157912091323207</v>
+        <v>0.01622584372329697</v>
       </c>
       <c r="H11" t="n">
-        <v>0.2500131056523213</v>
+        <v>0.2616103384449749</v>
       </c>
       <c r="I11" t="n">
-        <v>0.08788583285871464</v>
+        <v>0.08747254741697046</v>
       </c>
       <c r="J11" t="n">
-        <v>11.54251309463437</v>
+        <v>12.70365025772402</v>
       </c>
       <c r="K11" t="n">
-        <v>0.987437475064784</v>
+        <v>0.9854411589676157</v>
       </c>
       <c r="L11" t="n">
-        <v>4.440154176670417</v>
+        <v>4.997577549433327</v>
       </c>
       <c r="M11" t="n">
-        <v>3.882425034587254</v>
+        <v>1.702451651002795</v>
       </c>
       <c r="N11" t="n">
-        <v>0.03649851814777643</v>
+        <v>0.07185432343474611</v>
       </c>
       <c r="O11" t="n">
-        <v>1.161617660350038</v>
+        <v>2</v>
       </c>
       <c r="P11" t="n">
-        <v>1.181682747427959</v>
+        <v>7.990752066669026</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.06350732397518305</v>
+        <v>0.04487939246665663</v>
       </c>
       <c r="R11" t="n">
-        <v>1.207374387488153</v>
+        <v>0.1</v>
       </c>
       <c r="S11" t="n">
-        <v>10</v>
+        <v>9.999512342238758</v>
       </c>
       <c r="T11" t="n">
-        <v>0.01513435373490364</v>
+        <v>0.01815666321805127</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1103618391772042</v>
+        <v>0.7778018749448878</v>
       </c>
     </row>
     <row r="12">
@@ -1195,64 +1195,64 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.02853050051044832</v>
+        <v>0.02341129299119491</v>
       </c>
       <c r="C12" t="n">
-        <v>1.001001001001001</v>
+        <v>0.8308308308308309</v>
       </c>
       <c r="D12" t="n">
-        <v>0.04591282621315695</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6606606606606606</v>
+        <v>0.5505505505505506</v>
       </c>
       <c r="F12" t="n">
-        <v>0.004276860685270636</v>
+        <v>0.001158415557374612</v>
       </c>
       <c r="G12" t="n">
-        <v>0.01716474689420337</v>
+        <v>0.01173967336143019</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2643895748335507</v>
+        <v>0.206545908289359</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0889153492825444</v>
+        <v>0.08231704475237174</v>
       </c>
       <c r="J12" t="n">
-        <v>11.84807189682458</v>
+        <v>15</v>
       </c>
       <c r="K12" t="n">
-        <v>0.9858191892878292</v>
+        <v>0.989363915623903</v>
       </c>
       <c r="L12" t="n">
         <v>5</v>
       </c>
       <c r="M12" t="n">
-        <v>1.273623267725717</v>
+        <v>7.554867658770477</v>
       </c>
       <c r="N12" t="n">
-        <v>0.06042323076251249</v>
+        <v>0.0188875116803664</v>
       </c>
       <c r="O12" t="n">
-        <v>2</v>
+        <v>0.5074212161743896</v>
       </c>
       <c r="P12" t="n">
-        <v>10</v>
+        <v>2.08077105647667</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.001</v>
+        <v>0.07413458781417008</v>
       </c>
       <c r="R12" t="n">
-        <v>1.472552279342911</v>
+        <v>0.6615610105214221</v>
       </c>
       <c r="S12" t="n">
-        <v>6.451265899264724</v>
+        <v>4.220047172248165</v>
       </c>
       <c r="T12" t="n">
-        <v>0.09187940927453389</v>
+        <v>0.04794745515116488</v>
       </c>
       <c r="U12" t="n">
-        <v>1.48062765408131</v>
+        <v>0.8994098225826107</v>
       </c>
     </row>
     <row r="13">
@@ -1260,64 +1260,64 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.02338095096921032</v>
+        <v>0.02353480105681593</v>
       </c>
       <c r="C13" t="n">
         <v>0.8308308308308309</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>0.02466289411697797</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5405405405405406</v>
+        <v>0.5505505505505506</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0006840013604900799</v>
+        <v>0.001569354620475793</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01159344200825866</v>
+        <v>0.01195368011043188</v>
       </c>
       <c r="H13" t="n">
-        <v>0.2041770390718605</v>
+        <v>0.2114083720160441</v>
       </c>
       <c r="I13" t="n">
-        <v>0.08212254703838318</v>
+        <v>0.08244168712825453</v>
       </c>
       <c r="J13" t="n">
-        <v>14.99404537934083</v>
+        <v>15</v>
       </c>
       <c r="K13" t="n">
-        <v>0.9901427132162898</v>
+        <v>0.9884803230821269</v>
       </c>
       <c r="L13" t="n">
-        <v>4.928412677997652</v>
+        <v>5</v>
       </c>
       <c r="M13" t="n">
-        <v>2.201006884738174</v>
+        <v>1.74378562863064</v>
       </c>
       <c r="N13" t="n">
-        <v>0.08251600000951308</v>
+        <v>0.05121226747550327</v>
       </c>
       <c r="O13" t="n">
-        <v>0.8116931057389742</v>
+        <v>0.5469202316152325</v>
       </c>
       <c r="P13" t="n">
-        <v>4.412047440917864</v>
+        <v>10</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.01549073349592552</v>
+        <v>0.09974540640154266</v>
       </c>
       <c r="R13" t="n">
-        <v>0.1187841071379551</v>
+        <v>1.13859047119876</v>
       </c>
       <c r="S13" t="n">
-        <v>3.314678604359543</v>
+        <v>0.1815458813687596</v>
       </c>
       <c r="T13" t="n">
-        <v>0.005679088998826653</v>
+        <v>0.02977116281397448</v>
       </c>
       <c r="U13" t="n">
-        <v>0.388955781395296</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="14">
@@ -1325,64 +1325,64 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.02655730898155344</v>
+        <v>0.02391351369748795</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9009009009009009</v>
+        <v>0.8508508508508509</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3570979214813752</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6106106106106106</v>
+        <v>0.5605605605605606</v>
       </c>
       <c r="F14" t="n">
-        <v>0.002912939593511844</v>
+        <v>0.0008137290563445523</v>
       </c>
       <c r="G14" t="n">
-        <v>0.01465127438283094</v>
+        <v>0.01205067189257144</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2455028226730664</v>
+        <v>0.2065591253403053</v>
       </c>
       <c r="I14" t="n">
-        <v>0.08579795393389283</v>
+        <v>0.08277282915816953</v>
       </c>
       <c r="J14" t="n">
-        <v>13.50285516406618</v>
+        <v>14.99450981248655</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9869633769241061</v>
+        <v>0.9896598532096001</v>
       </c>
       <c r="L14" t="n">
-        <v>5</v>
+        <v>4.999603396907802</v>
       </c>
       <c r="M14" t="n">
-        <v>10</v>
+        <v>1.56826192178497</v>
       </c>
       <c r="N14" t="n">
-        <v>0.06068002978565784</v>
+        <v>0.04961111243704708</v>
       </c>
       <c r="O14" t="n">
-        <v>0.1003043761360244</v>
+        <v>0.5152123195184668</v>
       </c>
       <c r="P14" t="n">
-        <v>2.566769630332298</v>
+        <v>9.792248529919867</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.09998868017987596</v>
+        <v>0.09988637592289096</v>
       </c>
       <c r="R14" t="n">
-        <v>1.999129758893719</v>
+        <v>0.2856449952923657</v>
       </c>
       <c r="S14" t="n">
-        <v>7.221562001789276</v>
+        <v>3.98638588597801</v>
       </c>
       <c r="T14" t="n">
-        <v>0.08667965556748758</v>
+        <v>0.001</v>
       </c>
       <c r="U14" t="n">
-        <v>1.103390834363862</v>
+        <v>0.3227822515828332</v>
       </c>
     </row>
     <row r="15">
@@ -1390,64 +1390,64 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.02545786036652223</v>
+        <v>0.02368092098052288</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9009009009009009</v>
+        <v>0.8408408408408409</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5905905905905906</v>
+        <v>0.5605605605605606</v>
       </c>
       <c r="F15" t="n">
-        <v>0.001907602331657266</v>
+        <v>0.0004124885599289024</v>
       </c>
       <c r="G15" t="n">
-        <v>0.01399176404947638</v>
+        <v>0.01216104607582229</v>
       </c>
       <c r="H15" t="n">
-        <v>0.2292303219001859</v>
+        <v>0.2079275783298199</v>
       </c>
       <c r="I15" t="n">
-        <v>0.08576899427165249</v>
+        <v>0.08289633572598837</v>
       </c>
       <c r="J15" t="n">
-        <v>12.73191047509298</v>
+        <v>15</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9885167418234549</v>
+        <v>0.9901955300668621</v>
       </c>
       <c r="L15" t="n">
-        <v>4.62598299804268</v>
+        <v>5</v>
       </c>
       <c r="M15" t="n">
-        <v>6.548590453767387</v>
+        <v>10</v>
       </c>
       <c r="N15" t="n">
-        <v>0.04766353488994485</v>
+        <v>0.1</v>
       </c>
       <c r="O15" t="n">
-        <v>0.6635575168885418</v>
+        <v>0.1</v>
       </c>
       <c r="P15" t="n">
-        <v>1.55910195588318</v>
+        <v>2.831361969207001</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.0307630799329111</v>
+        <v>0.05538769196255118</v>
       </c>
       <c r="R15" t="n">
-        <v>0.3424247769509428</v>
+        <v>0.5238199044806336</v>
       </c>
       <c r="S15" t="n">
-        <v>0.813519929663347</v>
+        <v>3.557025236231673</v>
       </c>
       <c r="T15" t="n">
-        <v>0.04437016731896117</v>
+        <v>0.09807529469373298</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1002503815627615</v>
+        <v>0.2833165525611816</v>
       </c>
     </row>
     <row r="16">
@@ -1455,64 +1455,64 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.02953822728273589</v>
+        <v>0.02373600969915942</v>
       </c>
       <c r="C16" t="n">
-        <v>1.051051051051051</v>
+        <v>0.8408408408408409</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7107107107107107</v>
+        <v>0.5505505505505506</v>
       </c>
       <c r="F16" t="n">
-        <v>0.000679669367836932</v>
+        <v>0.001879233783762272</v>
       </c>
       <c r="G16" t="n">
-        <v>0.01803654716703863</v>
+        <v>0.01199334511043691</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2537414616499535</v>
+        <v>0.212401756206897</v>
       </c>
       <c r="I16" t="n">
-        <v>0.09092087975069028</v>
+        <v>0.08251415437569969</v>
       </c>
       <c r="J16" t="n">
-        <v>11.26766990175777</v>
+        <v>15</v>
       </c>
       <c r="K16" t="n">
-        <v>0.9901713284130947</v>
+        <v>0.9880550101853316</v>
       </c>
       <c r="L16" t="n">
-        <v>5</v>
+        <v>4.995797791809833</v>
       </c>
       <c r="M16" t="n">
-        <v>6.913417947182353</v>
+        <v>6.68147343399614</v>
       </c>
       <c r="N16" t="n">
-        <v>0.05564138466108835</v>
+        <v>0.09480354844245278</v>
       </c>
       <c r="O16" t="n">
+        <v>1.008621841292979</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.665455661128565</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.08698002827138077</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.036839646116335</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5.709313144997158</v>
+      </c>
+      <c r="T16" t="n">
         <v>0.1</v>
       </c>
-      <c r="P16" t="n">
-        <v>8.462777011346374</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.526367687720775</v>
-      </c>
-      <c r="S16" t="n">
-        <v>7.322645105096664</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0.09994079514458425</v>
-      </c>
       <c r="U16" t="n">
-        <v>2</v>
+        <v>0.1016819464371303</v>
       </c>
     </row>
     <row r="17">
@@ -1520,64 +1520,64 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.02577734430014335</v>
+        <v>0.02974930426427326</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8908908908908909</v>
+        <v>1.041041041041041</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0004421695419809524</v>
+        <v>0.005209227098368352</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5805805805805806</v>
+        <v>0.6906906906906907</v>
       </c>
       <c r="F17" t="n">
-        <v>0.008338839508297051</v>
+        <v>0.007360225929888315</v>
       </c>
       <c r="G17" t="n">
-        <v>0.01630264719453716</v>
+        <v>0.01875449479187119</v>
       </c>
       <c r="H17" t="n">
-        <v>0.2737962694434751</v>
+        <v>0.2893186157233559</v>
       </c>
       <c r="I17" t="n">
-        <v>0.08465948727134966</v>
+        <v>0.08878950496873836</v>
       </c>
       <c r="J17" t="n">
-        <v>14.13414553797755</v>
+        <v>12.65651987744484</v>
       </c>
       <c r="K17" t="n">
-        <v>0.9790898211020097</v>
+        <v>0.9814043203617451</v>
       </c>
       <c r="L17" t="n">
         <v>5</v>
       </c>
       <c r="M17" t="n">
-        <v>8.753832946581664</v>
+        <v>6.645098342591282</v>
       </c>
       <c r="N17" t="n">
-        <v>0.07968200537256273</v>
+        <v>0.1</v>
       </c>
       <c r="O17" t="n">
-        <v>1.58967672999988</v>
+        <v>0.6672782022516353</v>
       </c>
       <c r="P17" t="n">
-        <v>2.39730775396146</v>
+        <v>7.493538502757128</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.06075451257995308</v>
+        <v>0.05398282521775681</v>
       </c>
       <c r="R17" t="n">
-        <v>0.8433327516199122</v>
+        <v>0.1000830705722151</v>
       </c>
       <c r="S17" t="n">
-        <v>9.997051013705557</v>
+        <v>9.694887172809478</v>
       </c>
       <c r="T17" t="n">
-        <v>0.07188520192007067</v>
+        <v>0.1</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -1585,64 +1585,64 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0236746648132661</v>
+        <v>0.02279275719101436</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8408408408408409</v>
+        <v>0.8108108108108109</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5605605605605606</v>
+        <v>0.5305305305305306</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0009202559221962339</v>
+        <v>0.0004199150297397106</v>
       </c>
       <c r="G18" t="n">
-        <v>0.01190729264729981</v>
+        <v>0.01148586917413738</v>
       </c>
       <c r="H18" t="n">
-        <v>0.207528586320686</v>
+        <v>0.1972046059898719</v>
       </c>
       <c r="I18" t="n">
-        <v>0.08254481952514146</v>
+        <v>0.08205842246086358</v>
       </c>
       <c r="J18" t="n">
-        <v>14.99200920186157</v>
+        <v>14.99999971756787</v>
       </c>
       <c r="K18" t="n">
-        <v>0.9894935284787343</v>
+        <v>0.9902483456946412</v>
       </c>
       <c r="L18" t="n">
-        <v>4.995561598378701</v>
+        <v>5</v>
       </c>
       <c r="M18" t="n">
-        <v>1.72766260006605</v>
+        <v>1.333607754131722</v>
       </c>
       <c r="N18" t="n">
-        <v>0.06373704279349673</v>
+        <v>0.03920930497955787</v>
       </c>
       <c r="O18" t="n">
-        <v>0.7807297206464023</v>
+        <v>0.5294302044731954</v>
       </c>
       <c r="P18" t="n">
-        <v>8.342043900421336</v>
+        <v>2.833912534417363</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.07822327620385636</v>
+        <v>0.03995075493813612</v>
       </c>
       <c r="R18" t="n">
-        <v>0.4907553904736036</v>
+        <v>0.5667719043355172</v>
       </c>
       <c r="S18" t="n">
-        <v>5.028186680778152</v>
+        <v>5.321817338295035</v>
       </c>
       <c r="T18" t="n">
-        <v>0.09768940095676525</v>
+        <v>0.02506345605406797</v>
       </c>
       <c r="U18" t="n">
-        <v>1.120584835502343</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="19">
@@ -1650,64 +1650,64 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.02599906724005316</v>
+        <v>0.02304033500541124</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9109109109109109</v>
+        <v>0.8208208208208209</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6106106106106106</v>
+        <v>0.5405405405405406</v>
       </c>
       <c r="F19" t="n">
-        <v>0.00428693685535986</v>
+        <v>0.0003117032562905936</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01502243240110505</v>
+        <v>0.01149185984588466</v>
       </c>
       <c r="H19" t="n">
-        <v>0.2520945844219891</v>
+        <v>0.1969884148529039</v>
       </c>
       <c r="I19" t="n">
-        <v>0.08586248524050141</v>
+        <v>0.08209108010320394</v>
       </c>
       <c r="J19" t="n">
-        <v>13.57245750109167</v>
+        <v>15</v>
       </c>
       <c r="K19" t="n">
-        <v>0.9849111372063668</v>
+        <v>0.9908266566604083</v>
       </c>
       <c r="L19" t="n">
         <v>5</v>
       </c>
       <c r="M19" t="n">
-        <v>1.634959728121973</v>
+        <v>2.026095820203234</v>
       </c>
       <c r="N19" t="n">
-        <v>0.08290402358259033</v>
+        <v>0.05760843953311155</v>
       </c>
       <c r="O19" t="n">
-        <v>1.814290214401787</v>
+        <v>0.4225379044631474</v>
       </c>
       <c r="P19" t="n">
-        <v>9.681382290419839</v>
+        <v>4.905674622205939</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.07627193009372622</v>
+        <v>0.002336809539542543</v>
       </c>
       <c r="R19" t="n">
-        <v>0.1356747062404276</v>
+        <v>0.9320077439932204</v>
       </c>
       <c r="S19" t="n">
-        <v>0.100199512096793</v>
+        <v>6.779504972957757</v>
       </c>
       <c r="T19" t="n">
-        <v>0.001251986882416771</v>
+        <v>0.01045762968418689</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1869164087514998</v>
+        <v>1.513028019864497</v>
       </c>
     </row>
     <row r="20">
@@ -1715,64 +1715,64 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.02299389914933973</v>
+        <v>0.0237187230115521</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8108108108108109</v>
+        <v>0.8408408408408409</v>
       </c>
       <c r="D20" t="n">
-        <v>2.907627472126251e-07</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0.5305305305305306</v>
+        <v>0.5505505505505506</v>
       </c>
       <c r="F20" t="n">
-        <v>0.001547966137554244</v>
+        <v>0.001689794436460196</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01176310323482004</v>
+        <v>0.01194919317554826</v>
       </c>
       <c r="H20" t="n">
-        <v>0.2131850108790788</v>
+        <v>0.2110364819722668</v>
       </c>
       <c r="I20" t="n">
-        <v>0.08213530208861372</v>
+        <v>0.08251197472096901</v>
       </c>
       <c r="J20" t="n">
-        <v>14.9997688631881</v>
+        <v>15</v>
       </c>
       <c r="K20" t="n">
-        <v>0.9890302717303607</v>
+        <v>0.9883525882478335</v>
       </c>
       <c r="L20" t="n">
-        <v>5</v>
+        <v>4.996321038309139</v>
       </c>
       <c r="M20" t="n">
-        <v>1.463886459351207</v>
+        <v>2.116893467380147</v>
       </c>
       <c r="N20" t="n">
-        <v>0.002271377189591115</v>
+        <v>0.06682618094334698</v>
       </c>
       <c r="O20" t="n">
+        <v>0.8001506638914747</v>
+      </c>
+      <c r="P20" t="n">
+        <v>8.451546679014983</v>
+      </c>
+      <c r="Q20" t="n">
         <v>0.1</v>
       </c>
-      <c r="P20" t="n">
-        <v>2.139331937344546</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0.05053235223152634</v>
-      </c>
       <c r="R20" t="n">
-        <v>0.4389884331637154</v>
+        <v>0.9444771901024692</v>
       </c>
       <c r="S20" t="n">
-        <v>9.743111466073305</v>
+        <v>0.1</v>
       </c>
       <c r="T20" t="n">
-        <v>0.005767766956753908</v>
+        <v>0.002714130153753406</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1198806220492076</v>
+        <v>0.1020952872935173</v>
       </c>
     </row>
     <row r="21">
@@ -1780,64 +1780,64 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.02815860534483656</v>
+        <v>0.02538811047854495</v>
       </c>
       <c r="C21" t="n">
-        <v>1.001001001001001</v>
+        <v>0.9009009009009009</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6806806806806807</v>
+        <v>0.5905905905905906</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0002073149069220181</v>
+        <v>0.0007782521816474125</v>
       </c>
       <c r="G21" t="n">
-        <v>0.01649151952870327</v>
+        <v>0.01381475776803143</v>
       </c>
       <c r="H21" t="n">
-        <v>0.2440898177734413</v>
+        <v>0.2237211333745817</v>
       </c>
       <c r="I21" t="n">
-        <v>0.08888151394034059</v>
+        <v>0.0855589576287084</v>
       </c>
       <c r="J21" t="n">
-        <v>12.22486355498486</v>
+        <v>13.14688287109122</v>
       </c>
       <c r="K21" t="n">
-        <v>0.9907068629350961</v>
+        <v>0.9900620702312211</v>
       </c>
       <c r="L21" t="n">
-        <v>5</v>
+        <v>4.999997349097419</v>
       </c>
       <c r="M21" t="n">
-        <v>7.825698985818221</v>
+        <v>3.99684946389696</v>
       </c>
       <c r="N21" t="n">
-        <v>0.08031719222255421</v>
+        <v>0.01568718813080668</v>
       </c>
       <c r="O21" t="n">
-        <v>0.138834740671322</v>
+        <v>1.96546971458608</v>
       </c>
       <c r="P21" t="n">
-        <v>10</v>
+        <v>1.451649714118003</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.08748514737231364</v>
+        <v>0.02887353532847671</v>
       </c>
       <c r="R21" t="n">
-        <v>1.746844819619744</v>
+        <v>0.3628789465413152</v>
       </c>
       <c r="S21" t="n">
-        <v>9.775925741207859</v>
+        <v>0.8113477610483477</v>
       </c>
       <c r="T21" t="n">
-        <v>0.06204215518217818</v>
+        <v>0.008982157817286531</v>
       </c>
       <c r="U21" t="n">
-        <v>1.999742629847997</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
